--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_32_7.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_32_7.xlsx
@@ -518,166 +518,166 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_6</t>
+          <t>model_32_7_10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9952149829476797</v>
+        <v>0.9671612890892599</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7743103988339234</v>
+        <v>0.7386797798654614</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9946732214691039</v>
+        <v>0.9863285819655278</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9396944347382152</v>
+        <v>0.3873725422269797</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9826835817833153</v>
+        <v>0.9307266211650509</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03199743106184328</v>
+        <v>0.2195926110684792</v>
       </c>
       <c r="H2" t="n">
-        <v>1.509187402202613</v>
+        <v>1.747449515308632</v>
       </c>
       <c r="I2" t="n">
-        <v>0.009084041586462789</v>
+        <v>0.1717130856199149</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05938394547557668</v>
+        <v>0.8399738104869915</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03423399353101973</v>
+        <v>0.5058433759911992</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3577047489794192</v>
+        <v>0.383386898046203</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1788782576554324</v>
+        <v>0.4686070966902648</v>
       </c>
       <c r="N2" t="n">
-        <v>1.001766775527011</v>
+        <v>1.012125062490119</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1864934754128647</v>
+        <v>0.4885566709467877</v>
       </c>
       <c r="P2" t="n">
-        <v>184.8841993174447</v>
+        <v>181.031962434284</v>
       </c>
       <c r="Q2" t="n">
-        <v>293.3641477307145</v>
+        <v>289.5119108475538</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_5</t>
+          <t>model_32_7_9</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9948038964519594</v>
+        <v>0.966986596438981</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7742684320155313</v>
+        <v>0.7386014463481934</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9953194275237509</v>
+        <v>0.9875140249100175</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9524589373143183</v>
+        <v>0.4327861276399467</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9861412612764013</v>
+        <v>0.9360097138660773</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03474636835160447</v>
+        <v>0.2207607816252798</v>
       </c>
       <c r="H3" t="n">
-        <v>1.509468034510439</v>
+        <v>1.747973331899296</v>
       </c>
       <c r="I3" t="n">
-        <v>0.007982031686897838</v>
+        <v>0.1568239157246321</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04681451640693804</v>
+        <v>0.7777072210561606</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02739827404691794</v>
+        <v>0.4672655342212895</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3637676723747068</v>
+        <v>0.38871615948569</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1864037777288982</v>
+        <v>0.469851872003592</v>
       </c>
       <c r="N3" t="n">
-        <v>1.001918561310046</v>
+        <v>1.012189564391761</v>
       </c>
       <c r="O3" t="n">
-        <v>0.194339372455832</v>
+        <v>0.4898544389222433</v>
       </c>
       <c r="P3" t="n">
-        <v>184.7193604406003</v>
+        <v>181.0213511996122</v>
       </c>
       <c r="Q3" t="n">
-        <v>293.1993088538701</v>
+        <v>289.5012996128821</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_7</t>
+          <t>model_32_7_11</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9954862461694812</v>
+        <v>0.967065765216227</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7742443612549079</v>
+        <v>0.7384901373450353</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9939560098823232</v>
+        <v>0.9851912956254442</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9270786874134814</v>
+        <v>0.3449552996263422</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9792323141436122</v>
+        <v>0.9257662365604136</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03018349264860469</v>
+        <v>0.220231379647297</v>
       </c>
       <c r="H4" t="n">
-        <v>1.509628995797564</v>
+        <v>1.748717655715945</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0103071410344348</v>
+        <v>0.1859974082992971</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07180689264493831</v>
+        <v>0.898132112805216</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04105703699029413</v>
+        <v>0.5420647605522566</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3525476719431138</v>
+        <v>0.3786321560575178</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1737339709112892</v>
+        <v>0.4692881626967561</v>
       </c>
       <c r="N4" t="n">
-        <v>1.001666616798961</v>
+        <v>1.012160332843239</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1811301857318817</v>
+        <v>0.4892667313431763</v>
       </c>
       <c r="P4" t="n">
-        <v>185.0009202101634</v>
+        <v>181.0261531192724</v>
       </c>
       <c r="Q4" t="n">
-        <v>293.4808686234333</v>
+        <v>289.5061015325422</v>
       </c>
     </row>
     <row r="5">
@@ -687,1152 +687,1152 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9956515946086498</v>
+        <v>0.9664478028046671</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7741020292744974</v>
+        <v>0.7381558601759148</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9931891968338933</v>
+        <v>0.9887396588958987</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9148772791409846</v>
+        <v>0.4811325262757318</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9758628636062782</v>
+        <v>0.9416027067516592</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02907780687452469</v>
+        <v>0.224363697138853</v>
       </c>
       <c r="H5" t="n">
-        <v>1.510580770405948</v>
+        <v>1.750952968685058</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01161482851957742</v>
+        <v>0.1414299461286748</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0838218328985264</v>
+        <v>0.7114194499643376</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04771833070905191</v>
+        <v>0.4264247603090153</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3484893231306123</v>
+        <v>0.3947143328577504</v>
       </c>
       <c r="M5" t="n">
-        <v>0.170522159482352</v>
+        <v>0.473670452043246</v>
       </c>
       <c r="N5" t="n">
-        <v>1.001605565067575</v>
+        <v>1.012388503579815</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1777816408410484</v>
+        <v>0.4938355838197359</v>
       </c>
       <c r="P5" t="n">
-        <v>185.0755600922608</v>
+        <v>180.9889737917541</v>
       </c>
       <c r="Q5" t="n">
-        <v>293.5555085055306</v>
+        <v>289.4689222050239</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_4</t>
+          <t>model_32_7_12</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9942089921026959</v>
+        <v>0.9667737330630128</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7740759761963538</v>
+        <v>0.7381095490509907</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9958705436751578</v>
+        <v>0.9841078655644422</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9649586811306944</v>
+        <v>0.3055202040443552</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9894919904692909</v>
+        <v>0.9211321540791406</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03872449647441224</v>
+        <v>0.2221842000005247</v>
       </c>
       <c r="H6" t="n">
-        <v>1.510754987459457</v>
+        <v>1.75126265139067</v>
       </c>
       <c r="I6" t="n">
-        <v>0.007042183707614575</v>
+        <v>0.1996052958175432</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03450579992234621</v>
+        <v>0.9522015918705716</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02077399181498039</v>
+        <v>0.5759034438440573</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3709627028477896</v>
+        <v>0.3743844560923108</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1967854071683473</v>
+        <v>0.4713641904096287</v>
       </c>
       <c r="N6" t="n">
-        <v>1.002138218300543</v>
+        <v>1.012268160099811</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2051629693534541</v>
+        <v>0.4914311398537557</v>
       </c>
       <c r="P6" t="n">
-        <v>184.5025657907225</v>
+        <v>181.0084970228264</v>
       </c>
       <c r="Q6" t="n">
-        <v>292.9825142039923</v>
+        <v>289.4884454360962</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_9</t>
+          <t>model_32_7_13</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9957373506178622</v>
+        <v>0.9663431570546306</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7739072287167712</v>
+        <v>0.7375971942537713</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9923917065641245</v>
+        <v>0.9830824365871719</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9032544118444935</v>
+        <v>0.2690030057370516</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9726242812903326</v>
+        <v>0.9168218964851541</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02850435604605142</v>
+        <v>0.2250634637511974</v>
       </c>
       <c r="H7" t="n">
-        <v>1.511883402632437</v>
+        <v>1.754688770278853</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01297483151826815</v>
+        <v>0.2124846894054785</v>
       </c>
       <c r="J7" t="n">
-        <v>0.09526707372843159</v>
+        <v>1.002270340538803</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05412090222623384</v>
+        <v>0.6073775149721409</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3450629904345295</v>
+        <v>0.3705868908413747</v>
       </c>
       <c r="M7" t="n">
-        <v>0.168832331163351</v>
+        <v>0.4744085409762322</v>
       </c>
       <c r="N7" t="n">
-        <v>1.001573901310328</v>
+        <v>1.012427142010598</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1760198730320807</v>
+        <v>0.494605094726654</v>
       </c>
       <c r="P7" t="n">
-        <v>185.1153967193317</v>
+        <v>180.9827457108661</v>
       </c>
       <c r="Q7" t="n">
-        <v>293.5953451326015</v>
+        <v>289.4626941241359</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_10</t>
+          <t>model_32_7_7</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9957638250797658</v>
+        <v>0.9654259670800757</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7736779271934398</v>
+        <v>0.7372150030220597</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9915792821022992</v>
+        <v>0.9899948632228741</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8923030152213695</v>
+        <v>0.5322385623404124</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9695463932772911</v>
+        <v>0.9474802333622553</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02832732119739773</v>
+        <v>0.231196717334317</v>
       </c>
       <c r="H8" t="n">
-        <v>1.51341674297479</v>
+        <v>1.757244484805137</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01436030259694632</v>
+        <v>0.1256645728861211</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1060511056353695</v>
+        <v>0.6413479386282586</v>
       </c>
       <c r="K8" t="n">
-        <v>0.06020578635233691</v>
+        <v>0.383506283497515</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3420780170362779</v>
+        <v>0.4014772714781749</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1683072226536869</v>
+        <v>0.4808291976724344</v>
       </c>
       <c r="N8" t="n">
-        <v>1.001564126124394</v>
+        <v>1.012765796770434</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1754724095660357</v>
+        <v>0.5012990920710052</v>
       </c>
       <c r="P8" t="n">
-        <v>185.1278570534182</v>
+        <v>180.9289726813314</v>
       </c>
       <c r="Q8" t="n">
-        <v>293.607805466688</v>
+        <v>289.4089210946012</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_3</t>
+          <t>model_32_7_14</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.993373171171743</v>
+        <v>0.9658188794718505</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7736764082358724</v>
+        <v>0.736998754952555</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9963014223331184</v>
+        <v>0.9821172035654999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9765697547219487</v>
+        <v>0.2352980721844186</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9925695394864059</v>
+        <v>0.9128274398116589</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04431363488829584</v>
+        <v>0.228569310361324</v>
       </c>
       <c r="H9" t="n">
-        <v>1.513426900251038</v>
+        <v>1.758690536641646</v>
       </c>
       <c r="I9" t="n">
-        <v>0.006307383185135507</v>
+        <v>0.2246080214603973</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02307217256038044</v>
+        <v>1.048483191610368</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01468977787275797</v>
+        <v>0.6365455660034842</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3796165326977368</v>
+        <v>0.3671907885092517</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2105080399611755</v>
+        <v>0.4780892284514722</v>
       </c>
       <c r="N9" t="n">
-        <v>1.002446829105818</v>
+        <v>1.012620721425778</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2194698030340389</v>
+        <v>0.4984424766877884</v>
       </c>
       <c r="P9" t="n">
-        <v>184.2329257279968</v>
+        <v>180.9518315740434</v>
       </c>
       <c r="Q9" t="n">
-        <v>292.7128741412666</v>
+        <v>289.4317799873133</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_11</t>
+          <t>model_32_7_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.99574683934078</v>
+        <v>0.9652357460130341</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7734277008775465</v>
+        <v>0.7363488922693673</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9907656452659904</v>
+        <v>0.9812130672209629</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8820689906044475</v>
+        <v>0.2042780414573817</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9666467507416712</v>
+        <v>0.9091375848553563</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02844090491220833</v>
+        <v>0.2324687264855121</v>
       </c>
       <c r="H10" t="n">
-        <v>1.515090007501355</v>
+        <v>1.763036171396464</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01574784120296059</v>
+        <v>0.2359639789148548</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1161287287736127</v>
+        <v>1.09101477108924</v>
       </c>
       <c r="K10" t="n">
-        <v>0.06593828498828662</v>
+        <v>0.6634893750020476</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3394501211204176</v>
+        <v>0.3641537738593914</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1686443147936162</v>
+        <v>0.4821501078352178</v>
       </c>
       <c r="N10" t="n">
-        <v>1.001570397781866</v>
+        <v>1.012836032241341</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1758238524162388</v>
+        <v>0.5026762361140792</v>
       </c>
       <c r="P10" t="n">
-        <v>185.1198537125237</v>
+        <v>180.9179991454834</v>
       </c>
       <c r="Q10" t="n">
-        <v>293.5998021257935</v>
+        <v>289.3979475587532</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_12</t>
+          <t>model_32_7_16</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9956986086115633</v>
+        <v>0.9646202659943794</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7731667043516262</v>
+        <v>0.7356739389507677</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9899616421622018</v>
+        <v>0.9803698900717445</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8725663763706806</v>
+        <v>0.175799569706921</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9639333617201428</v>
+        <v>0.9057387723984998</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02876342402056182</v>
+        <v>0.23658444420428</v>
       </c>
       <c r="H11" t="n">
-        <v>1.516835292471963</v>
+        <v>1.767549587345814</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01711895088737844</v>
+        <v>0.2465542885412173</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1254861193077008</v>
+        <v>1.130061617797739</v>
       </c>
       <c r="K11" t="n">
-        <v>0.07130256650700402</v>
+        <v>0.6883079531694785</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3371315013155225</v>
+        <v>0.3614352207550758</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1695978302354185</v>
+        <v>0.4863994697820712</v>
       </c>
       <c r="N11" t="n">
-        <v>1.001588206051115</v>
+        <v>1.013063286402075</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1768179609844476</v>
+        <v>0.5071065021964021</v>
       </c>
       <c r="P11" t="n">
-        <v>185.0973013965177</v>
+        <v>180.8829001536679</v>
       </c>
       <c r="Q11" t="n">
-        <v>293.5772498097875</v>
+        <v>289.3628485669377</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_2</t>
+          <t>model_32_7_6</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9922221394780527</v>
+        <v>0.9637709522383989</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7729942005608068</v>
+        <v>0.7356138035104003</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9965856623776685</v>
+        <v>0.9912668166752945</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9863698542169429</v>
+        <v>0.5857832149817481</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9951328239193733</v>
+        <v>0.9536011097096622</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05201058912401597</v>
+        <v>0.2422638092012521</v>
       </c>
       <c r="H12" t="n">
-        <v>1.517988826115479</v>
+        <v>1.767951713312449</v>
       </c>
       <c r="I12" t="n">
-        <v>0.005822653367619142</v>
+        <v>0.1096888305359661</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01342184308349631</v>
+        <v>0.5679328388972752</v>
       </c>
       <c r="K12" t="n">
-        <v>0.009622248225557725</v>
+        <v>0.3388108347166206</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3901449555333651</v>
+        <v>0.4091520385442422</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2280583020282664</v>
+        <v>0.4922030162455855</v>
       </c>
       <c r="N12" t="n">
-        <v>1.002871825423488</v>
+        <v>1.013376879173514</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2377672160913767</v>
+        <v>0.5131571176478656</v>
       </c>
       <c r="P12" t="n">
-        <v>183.9126158882632</v>
+        <v>180.8354560518184</v>
       </c>
       <c r="Q12" t="n">
-        <v>292.392564301533</v>
+        <v>289.3154044650882</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_13</t>
+          <t>model_32_7_17</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9956284771896424</v>
+        <v>0.9639926086150399</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7729025837157412</v>
+        <v>0.7349933995677713</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9891758282479972</v>
+        <v>0.979586545295515</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8637830858321682</v>
+        <v>0.1497129775839998</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9614070119954073</v>
+        <v>0.9026159641186389</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02923239316187284</v>
+        <v>0.2407815919900205</v>
       </c>
       <c r="H13" t="n">
-        <v>1.51860146838029</v>
+        <v>1.772100357333507</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01845904156966459</v>
+        <v>0.2563931032341368</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1341351792107292</v>
+        <v>1.165828957165392</v>
       </c>
       <c r="K13" t="n">
-        <v>0.07629707744173957</v>
+        <v>0.7111111123256355</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3350783901021871</v>
+        <v>0.3590002138736403</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1709748319545097</v>
+        <v>0.4906950091350232</v>
       </c>
       <c r="N13" t="n">
-        <v>1.001614100729978</v>
+        <v>1.013295036819062</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1782535845175071</v>
+        <v>0.5115849115526016</v>
       </c>
       <c r="P13" t="n">
-        <v>185.0649556594573</v>
+        <v>180.8477300273875</v>
       </c>
       <c r="Q13" t="n">
-        <v>293.5449040727271</v>
+        <v>289.3276784406573</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_14</t>
+          <t>model_32_7_18</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.995543823661352</v>
+        <v>0.9633676636532404</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7726408768570872</v>
+        <v>0.7343217701702209</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9884160357738786</v>
+        <v>0.9788613070758134</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8556992964376109</v>
+        <v>0.1258582006836271</v>
       </c>
       <c r="F14" t="n">
-        <v>0.959066045241896</v>
+        <v>0.899752682096411</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02979847169534504</v>
+        <v>0.2449606018271806</v>
       </c>
       <c r="H14" t="n">
-        <v>1.520351503349158</v>
+        <v>1.776591546207495</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01975475649228485</v>
+        <v>0.2655020992578447</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1420954280958622</v>
+        <v>1.198536253577084</v>
       </c>
       <c r="K14" t="n">
-        <v>0.08092509229407352</v>
+        <v>0.7320191764174643</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3332499367360532</v>
+        <v>0.3568173536852682</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1726223383439844</v>
+        <v>0.4949349470659559</v>
       </c>
       <c r="N14" t="n">
-        <v>1.001645357417347</v>
+        <v>1.013525785728034</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1799712286647901</v>
+        <v>0.5160053524191356</v>
       </c>
       <c r="P14" t="n">
-        <v>185.0265963443541</v>
+        <v>180.8133157804744</v>
       </c>
       <c r="Q14" t="n">
-        <v>293.5065447576239</v>
+        <v>289.2932641937442</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_15</t>
+          <t>model_32_7_19</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9954501449469566</v>
+        <v>0.9627564120268575</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7723857860553316</v>
+        <v>0.73366928208191</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9876865784471393</v>
+        <v>0.9781918661276507</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8482825423610292</v>
+        <v>0.1040830465526817</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9569043203509007</v>
+        <v>0.8971326123433195</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03042490168985726</v>
+        <v>0.2490480442673578</v>
       </c>
       <c r="H15" t="n">
-        <v>1.522057296715082</v>
+        <v>1.780954737058462</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02099873925845687</v>
+        <v>0.2739102812444885</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1493988356301017</v>
+        <v>1.228392178180594</v>
       </c>
       <c r="K15" t="n">
-        <v>0.08519875183544862</v>
+        <v>0.7511512723470419</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3316193368223685</v>
+        <v>0.3548625996372348</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1744273536170783</v>
+        <v>0.4990471363181616</v>
       </c>
       <c r="N15" t="n">
-        <v>1.001679946481124</v>
+        <v>1.013751478636237</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1818530871749563</v>
+        <v>0.520292606081213</v>
       </c>
       <c r="P15" t="n">
-        <v>184.9849877426855</v>
+        <v>180.7802189045296</v>
       </c>
       <c r="Q15" t="n">
-        <v>293.4649361559554</v>
+        <v>289.2601673177994</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_16</t>
+          <t>model_32_7_5</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9953516394436496</v>
+        <v>0.9612934086586872</v>
       </c>
       <c r="C16" t="n">
-        <v>0.772140165283009</v>
+        <v>0.7331393236262378</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9869915310560416</v>
+        <v>0.9925400069953174</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8414947717234036</v>
+        <v>0.6412343452940554</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9549140473744301</v>
+        <v>0.9599020329227715</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03108360844404773</v>
+        <v>0.2588311545268242</v>
       </c>
       <c r="H16" t="n">
-        <v>1.523699763950584</v>
+        <v>1.784498571691776</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0221840409128568</v>
+        <v>0.09369755312192611</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1560828721646354</v>
+        <v>0.4919037666882777</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0891334565387461</v>
+        <v>0.292800659905102</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3301579015210543</v>
+        <v>0.4179333125658096</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1763054407670045</v>
+        <v>0.5087545130284588</v>
       </c>
       <c r="N16" t="n">
-        <v>1.001716317743883</v>
+        <v>1.014291664495254</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1838111283830312</v>
+        <v>0.5304132459151074</v>
       </c>
       <c r="P16" t="n">
-        <v>184.9421493168373</v>
+        <v>180.7031586857883</v>
       </c>
       <c r="Q16" t="n">
-        <v>293.4220977301071</v>
+        <v>289.1831070990581</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_1</t>
+          <t>model_32_7_20</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9906589045465994</v>
+        <v>0.9621665475615888</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7719290503332761</v>
+        <v>0.7330431009935217</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9966984280066852</v>
+        <v>0.9775754903016828</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9930249744129117</v>
+        <v>0.08423485003356557</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9968389013083014</v>
+        <v>0.8947390952945444</v>
       </c>
       <c r="G17" t="n">
-        <v>0.06246394830867887</v>
+        <v>0.2529924706626855</v>
       </c>
       <c r="H17" t="n">
-        <v>1.525111490591543</v>
+        <v>1.785142012879814</v>
       </c>
       <c r="I17" t="n">
-        <v>0.005630348082620068</v>
+        <v>0.2816519650048419</v>
       </c>
       <c r="J17" t="n">
-        <v>0.006868429760277572</v>
+        <v>1.255606050249048</v>
       </c>
       <c r="K17" t="n">
-        <v>0.006249388921448822</v>
+        <v>0.7686290504604735</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4031227967032606</v>
+        <v>0.3531165780519334</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2499278862165622</v>
+        <v>0.5029835689788341</v>
       </c>
       <c r="N17" t="n">
-        <v>1.003449019859717</v>
+        <v>1.01396927474649</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2605678337548486</v>
+        <v>0.5243966208297892</v>
       </c>
       <c r="P17" t="n">
-        <v>183.5463314314593</v>
+        <v>180.748791101848</v>
       </c>
       <c r="Q17" t="n">
-        <v>292.0262798447291</v>
+        <v>289.2287395151178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_17</t>
+          <t>model_32_7_21</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9952514953443965</v>
+        <v>0.96160341233608</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7719059379269442</v>
+        <v>0.7324480517689189</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9863330471436135</v>
+        <v>0.9770095024516993</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8352974992762767</v>
+        <v>0.06616749848429626</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9530866427340182</v>
+        <v>0.8925561110477084</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03175327249687377</v>
+        <v>0.2567581585086621</v>
       </c>
       <c r="H18" t="n">
-        <v>1.525266043359107</v>
+        <v>1.789121109784681</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02330698890286983</v>
+        <v>0.2887607755100142</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1621854347971208</v>
+        <v>1.280378204898163</v>
       </c>
       <c r="K18" t="n">
-        <v>0.09274617585838812</v>
+        <v>0.7845694902040885</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3288512955728646</v>
+        <v>0.3515466680719049</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1781944794231117</v>
+        <v>0.5067130928924791</v>
       </c>
       <c r="N18" t="n">
-        <v>1.001753294026684</v>
+        <v>1.014177201598986</v>
       </c>
       <c r="O18" t="n">
-        <v>0.185780587325578</v>
+        <v>0.5282849182976168</v>
       </c>
       <c r="P18" t="n">
-        <v>184.8995189763744</v>
+        <v>180.7192413091957</v>
       </c>
       <c r="Q18" t="n">
-        <v>293.3794673896442</v>
+        <v>289.1991897224655</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_18</t>
+          <t>model_32_7_22</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9951520370408666</v>
+        <v>0.9610703625176966</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7716843617736662</v>
+        <v>0.7318868938370295</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9857130429536469</v>
+        <v>0.9764906992547959</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8296492589913833</v>
+        <v>0.0497399072505238</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9514125332777829</v>
+        <v>0.8905676473809186</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03241835063054146</v>
+        <v>0.2603226650986613</v>
       </c>
       <c r="H19" t="n">
-        <v>1.526747724116342</v>
+        <v>1.79287357545912</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02436431535501531</v>
+        <v>0.2952769465132798</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1677473558512563</v>
+        <v>1.302902083367331</v>
       </c>
       <c r="K19" t="n">
-        <v>0.09605583560313583</v>
+        <v>0.7990895149403053</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3276754265077733</v>
+        <v>0.3501404064527814</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1800509667581418</v>
+        <v>0.5102182524162197</v>
       </c>
       <c r="N19" t="n">
-        <v>1.001790017092603</v>
+        <v>1.014374019993466</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1877161091699188</v>
+        <v>0.5319392997189636</v>
       </c>
       <c r="P19" t="n">
-        <v>184.8580612780584</v>
+        <v>180.6916667955694</v>
       </c>
       <c r="Q19" t="n">
-        <v>293.3380096913282</v>
+        <v>289.1716152088392</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_19</t>
+          <t>model_32_7_23</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9950549212510214</v>
+        <v>0.9605693444690779</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7714761415220898</v>
+        <v>0.7313611002952067</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9851320761155418</v>
+        <v>0.9760161763891999</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8245075328246916</v>
+        <v>0.03481969513687944</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9498814251187505</v>
+        <v>0.8887587780393784</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03306776436441403</v>
+        <v>0.2636729750967504</v>
       </c>
       <c r="H20" t="n">
-        <v>1.528140093897399</v>
+        <v>1.796389559294346</v>
       </c>
       <c r="I20" t="n">
-        <v>0.02535506931392158</v>
+        <v>0.3012369563120614</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1728105035890765</v>
+        <v>1.323359193579024</v>
       </c>
       <c r="K20" t="n">
-        <v>0.09908278645149901</v>
+        <v>0.8122981181561488</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3266251797640967</v>
+        <v>0.3488804769740224</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1818454408678261</v>
+        <v>0.5134909688560748</v>
       </c>
       <c r="N20" t="n">
-        <v>1.001825875230392</v>
+        <v>1.014559011272956</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1895869777575259</v>
+        <v>0.5353513424731203</v>
       </c>
       <c r="P20" t="n">
-        <v>184.8183927148119</v>
+        <v>180.666091348782</v>
       </c>
       <c r="Q20" t="n">
-        <v>293.2983411280817</v>
+        <v>289.1460397620518</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_20</t>
+          <t>model_32_7_24</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9949613625670407</v>
+        <v>0.9601011506419123</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7712815215768029</v>
+        <v>0.7308710980079224</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9845893435989101</v>
+        <v>0.9755828862948712</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8198354448738019</v>
+        <v>0.02128143402840676</v>
       </c>
       <c r="F21" t="n">
-        <v>0.948483769849256</v>
+        <v>0.8871151241643156</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03369339171499106</v>
+        <v>0.2668037893748414</v>
       </c>
       <c r="H21" t="n">
-        <v>1.529441518367675</v>
+        <v>1.79966620684567</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02628062023044862</v>
+        <v>0.3066790822772038</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1774111903570114</v>
+        <v>1.341921510083722</v>
       </c>
       <c r="K21" t="n">
-        <v>0.10184590529373</v>
+        <v>0.8243002961804629</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3256800973781606</v>
+        <v>0.3477478117831981</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1835575978133051</v>
+        <v>0.5165305309222693</v>
       </c>
       <c r="N21" t="n">
-        <v>1.001860419975247</v>
+        <v>1.014731882839909</v>
       </c>
       <c r="O21" t="n">
-        <v>0.1913720247688275</v>
+        <v>0.5385203049892336</v>
       </c>
       <c r="P21" t="n">
-        <v>184.7809071047911</v>
+        <v>180.6424835239748</v>
       </c>
       <c r="Q21" t="n">
-        <v>293.260855518061</v>
+        <v>289.1224319372446</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_21</t>
+          <t>model_32_7_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9948721994010766</v>
+        <v>0.9577552585696091</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7711004612441485</v>
+        <v>0.7295164949867997</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9840852556998819</v>
+        <v>0.9937965837600805</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8155947505821463</v>
+        <v>0.6977785397460932</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9472102197215975</v>
+        <v>0.9662912936474611</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03428962621635161</v>
+        <v>0.2824907804641726</v>
       </c>
       <c r="H22" t="n">
-        <v>1.53065226964584</v>
+        <v>1.80872444348529</v>
       </c>
       <c r="I22" t="n">
-        <v>0.02714026840456462</v>
+        <v>0.07791494205322114</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1815870762392029</v>
+        <v>0.4143759936964365</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1043636723218838</v>
+        <v>0.2461454328984119</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3248299195405165</v>
+        <v>0.4281183540190703</v>
       </c>
       <c r="M22" t="n">
-        <v>0.185174583073249</v>
+        <v>0.5314986175562196</v>
       </c>
       <c r="N22" t="n">
-        <v>1.001893341759603</v>
+        <v>1.015598058374298</v>
       </c>
       <c r="O22" t="n">
-        <v>0.1930578484389082</v>
+        <v>0.554125614059402</v>
       </c>
       <c r="P22" t="n">
-        <v>184.7458248264544</v>
+        <v>180.5282187289065</v>
       </c>
       <c r="Q22" t="n">
-        <v>293.2257732397243</v>
+        <v>289.0081671421763</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_22</t>
+          <t>model_32_7_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9947878571877123</v>
+        <v>0.9528570889858398</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7709327008338002</v>
+        <v>0.7243889946348283</v>
       </c>
       <c r="D23" t="n">
-        <v>0.983617657568756</v>
+        <v>0.9950162525846059</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8117479066045574</v>
+        <v>0.7542112113711078</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9460504952615483</v>
+        <v>0.9726383329485192</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0348536229854786</v>
+        <v>0.3152448630248348</v>
       </c>
       <c r="H23" t="n">
-        <v>1.531774084282306</v>
+        <v>1.843012061948892</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02793768861722471</v>
+        <v>0.0625958949166629</v>
       </c>
       <c r="J23" t="n">
-        <v>0.185375130824655</v>
+        <v>0.3370011297079093</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1066564097209399</v>
+        <v>0.1997985123122861</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3240636766106082</v>
+        <v>0.4401432051804905</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1866912504256121</v>
+        <v>0.5614667069602923</v>
       </c>
       <c r="N23" t="n">
-        <v>1.001924483499922</v>
+        <v>1.017406613297536</v>
       </c>
       <c r="O23" t="n">
-        <v>0.1946390834603955</v>
+        <v>0.5853695070719033</v>
       </c>
       <c r="P23" t="n">
-        <v>184.7131963755357</v>
+        <v>180.3088111983901</v>
       </c>
       <c r="Q23" t="n">
-        <v>293.1931447888056</v>
+        <v>288.7887596116599</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_23</t>
+          <t>model_32_7_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9947086590098431</v>
+        <v>0.9462216717969787</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7707778153819729</v>
+        <v>0.7172941323424072</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9831855854326391</v>
+        <v>0.9961759152091312</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8082623682818357</v>
+        <v>0.8087890874960092</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9449960756230138</v>
+        <v>0.9787596375916883</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03538322156556403</v>
+        <v>0.3596159283200355</v>
       </c>
       <c r="H24" t="n">
-        <v>1.532809804011857</v>
+        <v>1.890455438767148</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02867452444211809</v>
+        <v>0.04803052598176368</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1888074014088212</v>
+        <v>0.2621693767473593</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1087409629254696</v>
+        <v>0.1550999360590787</v>
       </c>
       <c r="L24" t="n">
-        <v>0.3233819580854624</v>
+        <v>0.4546910724076195</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1881042837512321</v>
+        <v>0.5996798548559352</v>
       </c>
       <c r="N24" t="n">
-        <v>1.001953725904058</v>
+        <v>1.019856613490346</v>
       </c>
       <c r="O24" t="n">
-        <v>0.1961122725400694</v>
+        <v>0.6252094677855848</v>
       </c>
       <c r="P24" t="n">
-        <v>184.6830350765495</v>
+        <v>180.0454373656321</v>
       </c>
       <c r="Q24" t="n">
-        <v>293.1629834898193</v>
+        <v>288.5253857789019</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_32_7_24</t>
+          <t>model_32_7_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9946347260028044</v>
+        <v>0.937372103765003</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7706351843756514</v>
+        <v>0.7076281501153281</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9827875740061744</v>
+        <v>0.9972468839829114</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8051070992203664</v>
+        <v>0.859016030390744</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9440385992845766</v>
+        <v>0.9843961781341628</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03587761192406167</v>
+        <v>0.4187930304983709</v>
       </c>
       <c r="H25" t="n">
-        <v>1.533763578207884</v>
+        <v>1.955091906427382</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02935327470907989</v>
+        <v>0.03457915229948143</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1919144500716385</v>
+        <v>0.1933031904915775</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1106338623903592</v>
+        <v>0.1139411713955295</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3227634234209777</v>
+        <v>0.4727858745232431</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1894138641284256</v>
+        <v>0.6471422026868368</v>
       </c>
       <c r="N25" t="n">
-        <v>1.001981024245118</v>
+        <v>1.023124146302153</v>
       </c>
       <c r="O25" t="n">
-        <v>0.1974776044651252</v>
+        <v>0.6746923860242524</v>
       </c>
       <c r="P25" t="n">
-        <v>184.655283602614</v>
+        <v>179.7407568834463</v>
       </c>
       <c r="Q25" t="n">
-        <v>293.1352320158838</v>
+        <v>288.2207052967161</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9873730322255169</v>
+        <v>0.9256998852795593</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7688839971245351</v>
+        <v>0.6946000337195647</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9966775419887155</v>
+        <v>0.9981873909360178</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9928495642562319</v>
+        <v>0.9012908753487563</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9967862075951077</v>
+        <v>0.9891739492445054</v>
       </c>
       <c r="G26" t="n">
-        <v>0.08443659164980927</v>
+        <v>0.4968452092561572</v>
       </c>
       <c r="H26" t="n">
-        <v>1.545473775419574</v>
+        <v>2.042210980754812</v>
       </c>
       <c r="I26" t="n">
-        <v>0.005665966131073057</v>
+        <v>0.02276637980158266</v>
       </c>
       <c r="J26" t="n">
-        <v>0.007041159211281236</v>
+        <v>0.1353401296516162</v>
       </c>
       <c r="K26" t="n">
-        <v>0.00635356267228022</v>
+        <v>0.07905325472659942</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3247688679892818</v>
+        <v>0.4966631409038318</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2905797509287412</v>
+        <v>0.7048724773007932</v>
       </c>
       <c r="N26" t="n">
-        <v>1.004662265024425</v>
+        <v>1.027433888512163</v>
       </c>
       <c r="O26" t="n">
-        <v>0.302950332508786</v>
+        <v>0.7348803579466681</v>
       </c>
       <c r="P26" t="n">
-        <v>182.9435088419657</v>
+        <v>179.39895350317</v>
       </c>
       <c r="Q26" t="n">
-        <v>291.4234572552355</v>
+        <v>287.8789019164398</v>
       </c>
     </row>
   </sheetData>
